--- a/Code/Results/Cases/Case_1_147/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_147/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.588130669501401</v>
+        <v>7.729717733731942</v>
       </c>
       <c r="E2">
-        <v>8.553784376173359</v>
+        <v>12.72596180790705</v>
       </c>
       <c r="F2">
-        <v>54.2166922988548</v>
+        <v>44.58921583010526</v>
       </c>
       <c r="G2">
-        <v>82.68988286887561</v>
+        <v>57.84141350152662</v>
       </c>
       <c r="H2">
-        <v>20.6434105365413</v>
+        <v>19.8007200114177</v>
       </c>
       <c r="J2">
-        <v>6.845678700245508</v>
+        <v>10.10904146479808</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -447,22 +447,22 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>4.562574684863714</v>
+        <v>7.731607383498007</v>
       </c>
       <c r="E3">
-        <v>8.305714397974281</v>
+        <v>12.73477324223081</v>
       </c>
       <c r="F3">
-        <v>50.39819605777507</v>
+        <v>43.7779840042736</v>
       </c>
       <c r="G3">
-        <v>76.53074389786774</v>
+        <v>56.12954056282797</v>
       </c>
       <c r="H3">
-        <v>19.22695718776272</v>
+        <v>19.59404963810029</v>
       </c>
       <c r="J3">
-        <v>6.638767292563295</v>
+        <v>10.11490316061086</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -473,22 +473,22 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>4.548307772254319</v>
+        <v>7.732971663349006</v>
       </c>
       <c r="E4">
-        <v>8.160553306445752</v>
+        <v>12.74289888234465</v>
       </c>
       <c r="F4">
-        <v>48.05502370783788</v>
+        <v>43.28880581502413</v>
       </c>
       <c r="G4">
-        <v>72.66080479061623</v>
+        <v>55.07480788211523</v>
       </c>
       <c r="H4">
-        <v>18.4266015285528</v>
+        <v>19.47262906352413</v>
       </c>
       <c r="J4">
-        <v>6.517702448529658</v>
+        <v>10.12069478094531</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -499,22 +499,22 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>4.542800747570599</v>
+        <v>7.733578766040466</v>
       </c>
       <c r="E5">
-        <v>8.103108225407354</v>
+        <v>12.74689087757522</v>
       </c>
       <c r="F5">
-        <v>47.08847980342888</v>
+        <v>43.09197246160716</v>
       </c>
       <c r="G5">
-        <v>71.07360785827058</v>
+        <v>54.64481053314546</v>
       </c>
       <c r="H5">
-        <v>18.09843648451601</v>
+        <v>19.42457083818628</v>
       </c>
       <c r="J5">
-        <v>6.469788983005623</v>
+        <v>10.12360443381651</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -525,22 +525,22 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>4.541903504749775</v>
+        <v>7.733682659711601</v>
       </c>
       <c r="E6">
-        <v>8.093670448196267</v>
+        <v>12.74759479490289</v>
       </c>
       <c r="F6">
-        <v>46.92727038737272</v>
+        <v>43.05944780799565</v>
       </c>
       <c r="G6">
-        <v>70.80845902655649</v>
+        <v>54.57342058210156</v>
       </c>
       <c r="H6">
-        <v>18.04382224300532</v>
+        <v>19.41667790995177</v>
       </c>
       <c r="J6">
-        <v>6.461916740856884</v>
+        <v>10.1241207127091</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -551,22 +551,22 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>4.548232321718569</v>
+        <v>7.732979644054461</v>
       </c>
       <c r="E7">
-        <v>8.159771767263711</v>
+        <v>12.74294996641732</v>
       </c>
       <c r="F7">
-        <v>48.0420363629276</v>
+        <v>43.28614073533018</v>
       </c>
       <c r="G7">
-        <v>72.6395056682863</v>
+        <v>55.0690085488706</v>
       </c>
       <c r="H7">
-        <v>18.42218400084387</v>
+        <v>19.47197512071685</v>
       </c>
       <c r="J7">
-        <v>6.517050612156094</v>
+        <v>10.12073179906159</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -577,22 +577,22 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>4.57898942554489</v>
+        <v>7.730326842399804</v>
       </c>
       <c r="E8">
-        <v>8.466704388124413</v>
+        <v>12.7284352259098</v>
       </c>
       <c r="F8">
-        <v>52.86518771452842</v>
+        <v>44.30781285096185</v>
       </c>
       <c r="G8">
-        <v>80.58668710135166</v>
+        <v>57.25234060176189</v>
       </c>
       <c r="H8">
-        <v>20.12397252909092</v>
+        <v>19.72835136274261</v>
       </c>
       <c r="J8">
-        <v>6.773039304076941</v>
+        <v>10.1106064877137</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -603,22 +603,22 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>4.65352632400835</v>
+        <v>7.726751176464111</v>
       </c>
       <c r="E9">
-        <v>9.130801751502394</v>
+        <v>12.72160251247393</v>
       </c>
       <c r="F9">
-        <v>62.45349566617418</v>
+        <v>46.37024980785323</v>
       </c>
       <c r="G9">
-        <v>95.47950971359799</v>
+        <v>61.47491567459098</v>
       </c>
       <c r="H9">
-        <v>23.80690200074883</v>
+        <v>20.272438758247</v>
       </c>
       <c r="J9">
-        <v>7.327439464643906</v>
+        <v>10.10822160243079</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -629,22 +629,22 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>4.722381526065497</v>
+        <v>7.725127013220631</v>
       </c>
       <c r="E10">
-        <v>9.667422962773438</v>
+        <v>12.72987491738819</v>
       </c>
       <c r="F10">
-        <v>69.36277914406345</v>
+        <v>47.90568748517465</v>
       </c>
       <c r="G10">
-        <v>106.1816886928489</v>
+        <v>64.5041441229143</v>
       </c>
       <c r="H10">
-        <v>26.4588418201403</v>
+        <v>20.69436942026431</v>
       </c>
       <c r="J10">
-        <v>7.776544142262602</v>
+        <v>10.1172120709113</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -655,22 +655,22 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>4.758566766375829</v>
+        <v>7.724608544374761</v>
       </c>
       <c r="E11">
-        <v>9.925912444897172</v>
+        <v>12.73654248767239</v>
       </c>
       <c r="F11">
-        <v>72.51953460741878</v>
+        <v>48.60533101872034</v>
       </c>
       <c r="G11">
-        <v>111.0663192396443</v>
+        <v>65.85944379355703</v>
       </c>
       <c r="H11">
-        <v>27.67030600482916</v>
+        <v>20.89045543231258</v>
       </c>
       <c r="J11">
-        <v>7.993381276541353</v>
+        <v>10.12365035974147</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>4.773189132146319</v>
+        <v>7.724444128017886</v>
       </c>
       <c r="E12">
-        <v>10.0263376912706</v>
+        <v>12.73948595990018</v>
       </c>
       <c r="F12">
-        <v>73.72210563784526</v>
+        <v>48.87017583043203</v>
       </c>
       <c r="G12">
-        <v>112.9265230187291</v>
+        <v>66.36888674787757</v>
       </c>
       <c r="H12">
-        <v>28.1318165289673</v>
+        <v>20.96524579847778</v>
       </c>
       <c r="J12">
-        <v>8.101661487595441</v>
+        <v>10.12642695060379</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>4.769994636806177</v>
+        <v>7.724478114804402</v>
       </c>
       <c r="E13">
-        <v>10.00458682011694</v>
+        <v>12.73883340025738</v>
       </c>
       <c r="F13">
-        <v>73.46268844107993</v>
+        <v>48.81314504986582</v>
       </c>
       <c r="G13">
-        <v>112.525266801788</v>
+        <v>66.25934484517296</v>
       </c>
       <c r="H13">
-        <v>28.03225949741638</v>
+        <v>20.94911543145763</v>
       </c>
       <c r="J13">
-        <v>8.073665936732901</v>
+        <v>10.12581389385634</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -733,22 +733,22 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>4.759749769499495</v>
+        <v>7.724594376744808</v>
       </c>
       <c r="E14">
-        <v>9.93412021568396</v>
+        <v>12.73677625479582</v>
       </c>
       <c r="F14">
-        <v>72.61829066896392</v>
+        <v>48.62712332969031</v>
       </c>
       <c r="G14">
-        <v>111.2190919387946</v>
+        <v>65.90143448747511</v>
       </c>
       <c r="H14">
-        <v>27.70820541221143</v>
+        <v>20.89659806435154</v>
       </c>
       <c r="J14">
-        <v>8.000272645572176</v>
+        <v>10.12387200243351</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -759,22 +759,22 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>4.753602187427552</v>
+        <v>7.724669753947895</v>
       </c>
       <c r="E15">
-        <v>9.891305346207808</v>
+        <v>12.73557073299515</v>
       </c>
       <c r="F15">
-        <v>72.10219250867443</v>
+        <v>48.51315967612334</v>
       </c>
       <c r="G15">
-        <v>110.4206798230222</v>
+        <v>65.68169744160296</v>
       </c>
       <c r="H15">
-        <v>27.51014372027641</v>
+        <v>20.86449779800469</v>
       </c>
       <c r="J15">
-        <v>7.964328965788519</v>
+        <v>10.12272664843228</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>4.720131723282469</v>
+        <v>7.72516535002237</v>
       </c>
       <c r="E16">
-        <v>9.65085604788786</v>
+        <v>12.7294977078151</v>
       </c>
       <c r="F16">
-        <v>69.15715953353019</v>
+        <v>47.85996489177801</v>
       </c>
       <c r="G16">
-        <v>105.8634305803833</v>
+        <v>64.41507003753799</v>
       </c>
       <c r="H16">
-        <v>26.37993010447934</v>
+        <v>20.68163311876455</v>
       </c>
       <c r="J16">
-        <v>7.762659045482491</v>
+        <v>10.11683864795563</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -811,22 +811,22 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>4.700978396245595</v>
+        <v>7.72552598314639</v>
       </c>
       <c r="E17">
-        <v>9.507317109080859</v>
+        <v>12.72651675488241</v>
       </c>
       <c r="F17">
-        <v>67.3571732339845</v>
+        <v>47.45935932342487</v>
       </c>
       <c r="G17">
-        <v>103.0768646843241</v>
+        <v>63.63183684729863</v>
       </c>
       <c r="H17">
-        <v>25.68912378765599</v>
+        <v>20.57047167034492</v>
       </c>
       <c r="J17">
-        <v>7.642413358423022</v>
+        <v>10.11382872043839</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -837,22 +837,22 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>4.69040285979122</v>
+        <v>7.72575413793746</v>
       </c>
       <c r="E18">
-        <v>9.426074261772282</v>
+        <v>12.72507552557142</v>
       </c>
       <c r="F18">
-        <v>66.32276283583062</v>
+        <v>47.22906635946149</v>
       </c>
       <c r="G18">
-        <v>101.4750095739997</v>
+        <v>63.17923164279129</v>
       </c>
       <c r="H18">
-        <v>25.29211571455618</v>
+        <v>20.50692855796406</v>
       </c>
       <c r="J18">
-        <v>7.574398106126831</v>
+        <v>10.11231850326612</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -863,22 +863,22 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>4.686892360768526</v>
+        <v>7.725834940557013</v>
       </c>
       <c r="E19">
-        <v>9.398781224111092</v>
+        <v>12.72463446245588</v>
       </c>
       <c r="F19">
-        <v>65.97255099954866</v>
+        <v>47.15112272176356</v>
       </c>
       <c r="G19">
-        <v>100.9325966204128</v>
+        <v>63.02564133938753</v>
       </c>
       <c r="H19">
-        <v>25.15770020742614</v>
+        <v>20.48548342974217</v>
       </c>
       <c r="J19">
-        <v>7.551555534887178</v>
+        <v>10.11184509972878</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -889,22 +889,22 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>4.702970305945272</v>
+        <v>7.725485446234343</v>
       </c>
       <c r="E20">
-        <v>9.522457877224754</v>
+        <v>12.72680578544055</v>
       </c>
       <c r="F20">
-        <v>67.5486600130798</v>
+        <v>47.5019934939683</v>
       </c>
       <c r="G20">
-        <v>103.373354998739</v>
+        <v>63.71543563327837</v>
       </c>
       <c r="H20">
-        <v>25.76261505166196</v>
+        <v>20.58226464743871</v>
       </c>
       <c r="J20">
-        <v>7.655092376669693</v>
+        <v>10.11412625151561</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>4.76273180986254</v>
+        <v>7.724559359727599</v>
       </c>
       <c r="E21">
-        <v>9.954744341539442</v>
+        <v>12.73736912101625</v>
       </c>
       <c r="F21">
-        <v>72.86606539503224</v>
+        <v>48.68176703450273</v>
       </c>
       <c r="G21">
-        <v>111.6023829237376</v>
+        <v>66.00666786147254</v>
       </c>
       <c r="H21">
-        <v>27.80329351944304</v>
+        <v>20.9120095951505</v>
       </c>
       <c r="J21">
-        <v>8.017590732201535</v>
+        <v>10.12443318921653</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>4.807319911216365</v>
+        <v>7.724140255688095</v>
       </c>
       <c r="E22">
-        <v>10.25244444207402</v>
+        <v>12.74671310399783</v>
       </c>
       <c r="F22">
-        <v>76.3870293486124</v>
+        <v>49.45214975722523</v>
       </c>
       <c r="G22">
-        <v>117.0478309140147</v>
+        <v>67.48188650198659</v>
       </c>
       <c r="H22">
-        <v>29.15456987218757</v>
+        <v>21.13061830241061</v>
       </c>
       <c r="J22">
-        <v>8.388863831324137</v>
+        <v>10.13314293819164</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -967,22 +967,22 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>4.782920195560269</v>
+        <v>7.724346829107237</v>
       </c>
       <c r="E23">
-        <v>10.09196028811277</v>
+        <v>12.74150251249816</v>
       </c>
       <c r="F23">
-        <v>74.50139959568806</v>
+        <v>49.04112689914091</v>
       </c>
       <c r="G23">
-        <v>114.1318273999459</v>
+        <v>66.69672593583054</v>
       </c>
       <c r="H23">
-        <v>28.43089013507503</v>
+        <v>21.01367872353849</v>
       </c>
       <c r="J23">
-        <v>8.185719437361728</v>
+        <v>10.12831357741492</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>4.702068421082593</v>
+        <v>7.725503708133395</v>
       </c>
       <c r="E24">
-        <v>9.515608783388116</v>
+        <v>12.72667426583615</v>
       </c>
       <c r="F24">
-        <v>67.46208788092734</v>
+        <v>47.48271850152679</v>
       </c>
       <c r="G24">
-        <v>103.2393117470444</v>
+        <v>63.6776477902407</v>
       </c>
       <c r="H24">
-        <v>25.72938934000019</v>
+        <v>20.57693190082324</v>
       </c>
       <c r="J24">
-        <v>7.649356747890019</v>
+        <v>10.11399105181372</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1019,22 +1019,22 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>4.631366816442402</v>
+        <v>7.727543224493869</v>
       </c>
       <c r="E25">
-        <v>8.943575044186842</v>
+        <v>12.72112336097134</v>
       </c>
       <c r="F25">
-        <v>59.89470489420585</v>
+        <v>45.8076383838171</v>
       </c>
       <c r="G25">
-        <v>91.51081149446907</v>
+        <v>60.34292603907756</v>
       </c>
       <c r="H25">
-        <v>22.82448057484348</v>
+        <v>20.1211257321502</v>
       </c>
       <c r="J25">
-        <v>7.171017411757751</v>
+        <v>10.10698609646898</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_147/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_147/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.729717733731942</v>
+        <v>4.5881306695012</v>
       </c>
       <c r="E2">
-        <v>12.72596180790705</v>
+        <v>8.553784376173313</v>
       </c>
       <c r="F2">
-        <v>44.58921583010526</v>
+        <v>54.21669229885487</v>
       </c>
       <c r="G2">
-        <v>57.84141350152662</v>
+        <v>82.68988286887574</v>
       </c>
       <c r="H2">
-        <v>19.8007200114177</v>
+        <v>20.64341053654131</v>
       </c>
       <c r="J2">
-        <v>10.10904146479808</v>
+        <v>6.84567870024551</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -447,22 +447,22 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7.731607383498007</v>
+        <v>4.562574684863714</v>
       </c>
       <c r="E3">
-        <v>12.73477324223081</v>
+        <v>8.305714397974258</v>
       </c>
       <c r="F3">
-        <v>43.7779840042736</v>
+        <v>50.39819605777505</v>
       </c>
       <c r="G3">
-        <v>56.12954056282797</v>
+        <v>76.53074389786769</v>
       </c>
       <c r="H3">
-        <v>19.59404963810029</v>
+        <v>19.22695718776271</v>
       </c>
       <c r="J3">
-        <v>10.11490316061086</v>
+        <v>6.638767292563305</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -473,22 +473,22 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>7.732971663349006</v>
+        <v>4.548307772254386</v>
       </c>
       <c r="E4">
-        <v>12.74289888234465</v>
+        <v>8.160553306445731</v>
       </c>
       <c r="F4">
-        <v>43.28880581502413</v>
+        <v>48.0550237078379</v>
       </c>
       <c r="G4">
-        <v>55.07480788211523</v>
+        <v>72.6608047906164</v>
       </c>
       <c r="H4">
-        <v>19.47262906352413</v>
+        <v>18.42660152855279</v>
       </c>
       <c r="J4">
-        <v>10.12069478094531</v>
+        <v>6.517702448529623</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -499,22 +499,22 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>7.733578766040466</v>
+        <v>4.542800747570466</v>
       </c>
       <c r="E5">
-        <v>12.74689087757522</v>
+        <v>8.103108225407347</v>
       </c>
       <c r="F5">
-        <v>43.09197246160716</v>
+        <v>47.08847980342887</v>
       </c>
       <c r="G5">
-        <v>54.64481053314546</v>
+        <v>71.07360785827052</v>
       </c>
       <c r="H5">
-        <v>19.42457083818628</v>
+        <v>18.09843648451599</v>
       </c>
       <c r="J5">
-        <v>10.12360443381651</v>
+        <v>6.469788983005621</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -525,22 +525,22 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>7.733682659711601</v>
+        <v>4.541903504749708</v>
       </c>
       <c r="E6">
-        <v>12.74759479490289</v>
+        <v>8.093670448196184</v>
       </c>
       <c r="F6">
-        <v>43.05944780799565</v>
+        <v>46.92727038737273</v>
       </c>
       <c r="G6">
-        <v>54.57342058210156</v>
+        <v>70.80845902655649</v>
       </c>
       <c r="H6">
-        <v>19.41667790995177</v>
+        <v>18.04382224300533</v>
       </c>
       <c r="J6">
-        <v>10.1241207127091</v>
+        <v>6.46191674085685</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -551,22 +551,22 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>7.732979644054461</v>
+        <v>4.5482323217183</v>
       </c>
       <c r="E7">
-        <v>12.74294996641732</v>
+        <v>8.15977176726363</v>
       </c>
       <c r="F7">
-        <v>43.28614073533018</v>
+        <v>48.04203636292759</v>
       </c>
       <c r="G7">
-        <v>55.0690085488706</v>
+        <v>72.6395056682864</v>
       </c>
       <c r="H7">
-        <v>19.47197512071685</v>
+        <v>18.42218400084386</v>
       </c>
       <c r="J7">
-        <v>10.12073179906159</v>
+        <v>6.517050612156083</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -577,22 +577,22 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>7.730326842399804</v>
+        <v>4.578989425544688</v>
       </c>
       <c r="E8">
-        <v>12.7284352259098</v>
+        <v>8.466704388124411</v>
       </c>
       <c r="F8">
-        <v>44.30781285096185</v>
+        <v>52.8651877145286</v>
       </c>
       <c r="G8">
-        <v>57.25234060176189</v>
+        <v>80.58668710135198</v>
       </c>
       <c r="H8">
-        <v>19.72835136274261</v>
+        <v>20.12397252909101</v>
       </c>
       <c r="J8">
-        <v>10.1106064877137</v>
+        <v>6.773039304076957</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -603,22 +603,22 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>7.726751176464111</v>
+        <v>4.65352632400835</v>
       </c>
       <c r="E9">
-        <v>12.72160251247393</v>
+        <v>9.13080175150243</v>
       </c>
       <c r="F9">
-        <v>46.37024980785323</v>
+        <v>62.45349566617411</v>
       </c>
       <c r="G9">
-        <v>61.47491567459098</v>
+        <v>95.47950971359792</v>
       </c>
       <c r="H9">
-        <v>20.272438758247</v>
+        <v>23.80690200074881</v>
       </c>
       <c r="J9">
-        <v>10.10822160243079</v>
+        <v>7.327439464643931</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -629,22 +629,22 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>7.725127013220631</v>
+        <v>4.72238152606543</v>
       </c>
       <c r="E10">
-        <v>12.72987491738819</v>
+        <v>9.667422962773434</v>
       </c>
       <c r="F10">
-        <v>47.90568748517465</v>
+        <v>69.36277914406377</v>
       </c>
       <c r="G10">
-        <v>64.5041441229143</v>
+        <v>106.1816886928493</v>
       </c>
       <c r="H10">
-        <v>20.69436942026431</v>
+        <v>26.45884182014041</v>
       </c>
       <c r="J10">
-        <v>10.1172120709113</v>
+        <v>7.776544142262592</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -655,22 +655,22 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>7.724608544374761</v>
+        <v>4.758566766375829</v>
       </c>
       <c r="E11">
-        <v>12.73654248767239</v>
+        <v>9.925912444897158</v>
       </c>
       <c r="F11">
-        <v>48.60533101872034</v>
+        <v>72.51953460741871</v>
       </c>
       <c r="G11">
-        <v>65.85944379355703</v>
+        <v>111.0663192396442</v>
       </c>
       <c r="H11">
-        <v>20.89045543231258</v>
+        <v>27.67030600482913</v>
       </c>
       <c r="J11">
-        <v>10.12365035974147</v>
+        <v>7.993381276541343</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>7.724444128017886</v>
+        <v>4.773189132146319</v>
       </c>
       <c r="E12">
-        <v>12.73948595990018</v>
+        <v>10.0263376912706</v>
       </c>
       <c r="F12">
-        <v>48.87017583043203</v>
+        <v>73.72210563784535</v>
       </c>
       <c r="G12">
-        <v>66.36888674787757</v>
+        <v>112.9265230187293</v>
       </c>
       <c r="H12">
-        <v>20.96524579847778</v>
+        <v>28.13181652896733</v>
       </c>
       <c r="J12">
-        <v>10.12642695060379</v>
+        <v>8.101661487595472</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>7.724478114804402</v>
+        <v>4.769994636806109</v>
       </c>
       <c r="E13">
-        <v>12.73883340025738</v>
+        <v>10.00458682011692</v>
       </c>
       <c r="F13">
-        <v>48.81314504986582</v>
+        <v>73.4626884410801</v>
       </c>
       <c r="G13">
-        <v>66.25934484517296</v>
+        <v>112.5252668017882</v>
       </c>
       <c r="H13">
-        <v>20.94911543145763</v>
+        <v>28.03225949741644</v>
       </c>
       <c r="J13">
-        <v>10.12581389385634</v>
+        <v>8.073665936732922</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -733,22 +733,22 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>7.724594376744808</v>
+        <v>4.759749769499357</v>
       </c>
       <c r="E14">
-        <v>12.73677625479582</v>
+        <v>9.934120215683933</v>
       </c>
       <c r="F14">
-        <v>48.62712332969031</v>
+        <v>72.61829066896375</v>
       </c>
       <c r="G14">
-        <v>65.90143448747511</v>
+        <v>111.2190919387943</v>
       </c>
       <c r="H14">
-        <v>20.89659806435154</v>
+        <v>27.7082054122114</v>
       </c>
       <c r="J14">
-        <v>10.12387200243351</v>
+        <v>8.00027264557218</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -759,22 +759,22 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>7.724669753947895</v>
+        <v>4.753602187427552</v>
       </c>
       <c r="E15">
-        <v>12.73557073299515</v>
+        <v>9.891305346207806</v>
       </c>
       <c r="F15">
-        <v>48.51315967612334</v>
+        <v>72.10219250867448</v>
       </c>
       <c r="G15">
-        <v>65.68169744160296</v>
+        <v>110.4206798230222</v>
       </c>
       <c r="H15">
-        <v>20.86449779800469</v>
+        <v>27.51014372027642</v>
       </c>
       <c r="J15">
-        <v>10.12272664843228</v>
+        <v>7.964328965788536</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>7.72516535002237</v>
+        <v>4.720131723282535</v>
       </c>
       <c r="E16">
-        <v>12.7294977078151</v>
+        <v>9.650856047887842</v>
       </c>
       <c r="F16">
-        <v>47.85996489177801</v>
+        <v>69.15715953353016</v>
       </c>
       <c r="G16">
-        <v>64.41507003753799</v>
+        <v>105.8634305803832</v>
       </c>
       <c r="H16">
-        <v>20.68163311876455</v>
+        <v>26.37993010447933</v>
       </c>
       <c r="J16">
-        <v>10.11683864795563</v>
+        <v>7.76265904548249</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -811,22 +811,22 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>7.72552598314639</v>
+        <v>4.700978396245727</v>
       </c>
       <c r="E17">
-        <v>12.72651675488241</v>
+        <v>9.507317109080917</v>
       </c>
       <c r="F17">
-        <v>47.45935932342487</v>
+        <v>67.35717323398426</v>
       </c>
       <c r="G17">
-        <v>63.63183684729863</v>
+        <v>103.0768646843238</v>
       </c>
       <c r="H17">
-        <v>20.57047167034492</v>
+        <v>25.6891237876559</v>
       </c>
       <c r="J17">
-        <v>10.11382872043839</v>
+        <v>7.642413358423057</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -837,22 +837,22 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>7.72575413793746</v>
+        <v>4.690402859791089</v>
       </c>
       <c r="E18">
-        <v>12.72507552557142</v>
+        <v>9.426074261772262</v>
       </c>
       <c r="F18">
-        <v>47.22906635946149</v>
+        <v>66.32276283583084</v>
       </c>
       <c r="G18">
-        <v>63.17923164279129</v>
+        <v>101.475009574</v>
       </c>
       <c r="H18">
-        <v>20.50692855796406</v>
+        <v>25.29211571455627</v>
       </c>
       <c r="J18">
-        <v>10.11231850326612</v>
+        <v>7.574398106126806</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -863,22 +863,22 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>7.725834940557013</v>
+        <v>4.686892360768661</v>
       </c>
       <c r="E19">
-        <v>12.72463446245588</v>
+        <v>9.398781224111092</v>
       </c>
       <c r="F19">
-        <v>47.15112272176356</v>
+        <v>65.97255099954856</v>
       </c>
       <c r="G19">
-        <v>63.02564133938753</v>
+        <v>100.9325966204127</v>
       </c>
       <c r="H19">
-        <v>20.48548342974217</v>
+        <v>25.15770020742611</v>
       </c>
       <c r="J19">
-        <v>10.11184509972878</v>
+        <v>7.551555534887168</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -889,22 +889,22 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>7.725485446234343</v>
+        <v>4.702970305945273</v>
       </c>
       <c r="E20">
-        <v>12.72680578544055</v>
+        <v>9.52245787722474</v>
       </c>
       <c r="F20">
-        <v>47.5019934939683</v>
+        <v>67.54866001307984</v>
       </c>
       <c r="G20">
-        <v>63.71543563327837</v>
+        <v>103.3733549987391</v>
       </c>
       <c r="H20">
-        <v>20.58226464743871</v>
+        <v>25.76261505166194</v>
       </c>
       <c r="J20">
-        <v>10.11412625151561</v>
+        <v>7.655092376669695</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>7.724559359727599</v>
+        <v>4.762731809862608</v>
       </c>
       <c r="E21">
-        <v>12.73736912101625</v>
+        <v>9.954744341539442</v>
       </c>
       <c r="F21">
-        <v>48.68176703450273</v>
+        <v>72.86606539503225</v>
       </c>
       <c r="G21">
-        <v>66.00666786147254</v>
+        <v>111.6023829237376</v>
       </c>
       <c r="H21">
-        <v>20.9120095951505</v>
+        <v>27.80329351944303</v>
       </c>
       <c r="J21">
-        <v>10.12443318921653</v>
+        <v>8.017590732201549</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>7.724140255688095</v>
+        <v>4.807319911216233</v>
       </c>
       <c r="E22">
-        <v>12.74671310399783</v>
+        <v>10.25244444207403</v>
       </c>
       <c r="F22">
-        <v>49.45214975722523</v>
+        <v>76.3870293486125</v>
       </c>
       <c r="G22">
-        <v>67.48188650198659</v>
+        <v>117.0478309140149</v>
       </c>
       <c r="H22">
-        <v>21.13061830241061</v>
+        <v>29.15456987218759</v>
       </c>
       <c r="J22">
-        <v>10.13314293819164</v>
+        <v>8.388863831324141</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -967,22 +967,22 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>7.724346829107237</v>
+        <v>4.782920195560201</v>
       </c>
       <c r="E23">
-        <v>12.74150251249816</v>
+        <v>10.09196028811273</v>
       </c>
       <c r="F23">
-        <v>49.04112689914091</v>
+        <v>74.50139959568801</v>
       </c>
       <c r="G23">
-        <v>66.69672593583054</v>
+        <v>114.1318273999459</v>
       </c>
       <c r="H23">
-        <v>21.01367872353849</v>
+        <v>28.430890135075</v>
       </c>
       <c r="J23">
-        <v>10.12831357741492</v>
+        <v>8.185719437361774</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>7.725503708133395</v>
+        <v>4.702068421082525</v>
       </c>
       <c r="E24">
-        <v>12.72667426583615</v>
+        <v>9.515608783388084</v>
       </c>
       <c r="F24">
-        <v>47.48271850152679</v>
+        <v>67.4620878809273</v>
       </c>
       <c r="G24">
-        <v>63.6776477902407</v>
+        <v>103.2393117470443</v>
       </c>
       <c r="H24">
-        <v>20.57693190082324</v>
+        <v>25.72938934000018</v>
       </c>
       <c r="J24">
-        <v>10.11399105181372</v>
+        <v>7.649356747890028</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1019,22 +1019,22 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>7.727543224493869</v>
+        <v>4.631366816442468</v>
       </c>
       <c r="E25">
-        <v>12.72112336097134</v>
+        <v>8.943575044186861</v>
       </c>
       <c r="F25">
-        <v>45.8076383838171</v>
+        <v>59.89470489420585</v>
       </c>
       <c r="G25">
-        <v>60.34292603907756</v>
+        <v>91.51081149446905</v>
       </c>
       <c r="H25">
-        <v>20.1211257321502</v>
+        <v>22.82448057484348</v>
       </c>
       <c r="J25">
-        <v>10.10698609646898</v>
+        <v>7.171017411757767</v>
       </c>
       <c r="O25">
         <v>0</v>
